--- a/pred_ohlcv/54_21/2019-10-26 HYC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 HYC ohlcv.xlsx
@@ -1094,7 +1094,7 @@
         <v>-2137411.741907308</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-1251711.858821339</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-1106968.571418688</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-1103728.951218688</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-1103728.951218688</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-1132728.951218688</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1132718.951218688</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-1132718.951218688</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-1132718.951218688</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-1132588.951218688</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-715395.6891186885</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-330550.5110186884</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-119039.4327186884</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>269687.8110813115</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>378162.8928813115</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>378162.8928813115</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-174761.1438186885</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>137124.7855813116</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-471656.0404186884</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>63648.90228640864</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>63648.90228640864</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>63648.90228640864</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>63648.90228640864</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>63604.90228640864</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>3541.825386408644</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>3551.825386408644</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-1456648.105813592</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-1473060.869157621</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-1312949.371428209</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-1453605.543258227</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-1423456.631958227</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-1479778.967158227</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-1479760.785358227</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-1479760.785358227</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-1479729.785358227</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-1745061.045313724</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-1709671.820913724</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-1733031.820913724</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-1733021.820913724</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-1524216.798213724</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-1594950.329613724</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-1594940.329613724</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-1594040.329613724</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-1594073.329613724</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-1603608.640613724</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-1603608.640613724</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-1553832.363474218</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-1553832.363474218</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-1660450.024074218</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-1609924.002947458</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-1610170.002947458</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-1610170.002947458</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-1610138.002947458</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-951993.4415474578</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-951993.4415474578</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-970406.7377474578</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-1009588.760647458</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-26 HYC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 HYC ohlcv.xlsx
@@ -2056,7 +2056,7 @@
         <v>-1106968.571418688</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-1103728.951218688</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-1103728.951218688</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-1103728.951218688</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-1103728.951218688</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-1132728.951218688</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1132718.951218688</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-1132718.951218688</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-1132718.951218688</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-1132588.951218688</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-715395.6891186885</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-330550.5110186884</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-119039.4327186884</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>269687.8110813115</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>378162.8928813115</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>378162.8928813115</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-174761.1438186885</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>137124.7855813116</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>162700.5023813116</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-91022.72541868844</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-629859.6450186884</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-471656.0404186884</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>62131.75678640864</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>63648.90228640864</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>63648.90228640864</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>63648.90228640864</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>63648.90228640864</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>63604.90228640864</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>3541.825386408644</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>3551.825386408644</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>3551.825386408644</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-666458.1746135914</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-1473060.869157621</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-1312949.371428209</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-1453605.543258227</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-1423456.631958227</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-1479778.967158227</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-1479760.785358227</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-1479760.785358227</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-1479729.785358227</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-1745061.045313724</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-1524216.798213724</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-1546037.012813724</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-1546027.012813724</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-1594950.329613724</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-1594940.329613724</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-1594940.329613724</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-1594940.329613724</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-1594040.329613724</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-1594040.329613724</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-1603608.640613724</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-1603608.640613724</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-1553832.363474218</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-1553832.363474218</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-1660450.024074218</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-1609924.002947458</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-1610170.002947458</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-1610170.002947458</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-1610138.002947458</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-951993.4415474578</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-951993.4415474578</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-951993.4415474578</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-951993.4415474578</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-951993.4415474578</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-951993.4415474578</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-951993.4415474578</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-970406.7377474578</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-1009588.760647458</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
